--- a/WebApp/WebApp/UploadedFiles/New-Microsoft-Excel-Worksheet.xlsx
+++ b/WebApp/WebApp/UploadedFiles/New-Microsoft-Excel-Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,33 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>CP01</t>
-  </si>
-  <si>
-    <t>nguyenvanb@student.com</t>
-  </si>
-  <si>
-    <t>nguyenvf@student.com</t>
-  </si>
-  <si>
-    <t>St0009</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Nguyen Van J</t>
-  </si>
-  <si>
-    <t>Nguyen Van Z</t>
-  </si>
-  <si>
-    <t>St0007</t>
-  </si>
-  <si>
-    <t>HIHI</t>
-  </si>
-  <si>
-    <t>HOHO</t>
   </si>
 </sst>
 </file>
@@ -374,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G4"/>
+  <dimension ref="A3:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,57 +364,28 @@
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>10101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>378288209</v>
-      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>10101</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>378288209</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WebApp/WebApp/UploadedFiles/New-Microsoft-Excel-Worksheet.xlsx
+++ b/WebApp/WebApp/UploadedFiles/New-Microsoft-Excel-Worksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>Nguyen Van J</t>
   </si>
@@ -350,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -364,9 +364,43 @@
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
